--- a/micrositeData.xlsx
+++ b/micrositeData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>hostessMail</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>https://pushofbiz.cliotest.com/login.php</t>
-  </si>
-  <si>
-    <t>sshinde</t>
-  </si>
-  <si>
-    <t>C@bi$ush5</t>
   </si>
   <si>
     <t>virtual_cabitest19</t>
@@ -420,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,20 +500,20 @@
       <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>1234</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1234</v>
+      </c>
+      <c r="L2" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="K2" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId2" display="C@bi$ush5"/>
     <hyperlink ref="I2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/micrositeData.xlsx
+++ b/micrositeData.xlsx
@@ -513,7 +513,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="K2" r:id="rId2" display="C@bi$ush5"/>
+    <hyperlink ref="K2" r:id="rId2" display="C@bi4Lam!"/>
     <hyperlink ref="I2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
